--- a/test_excel/函数公式.xlsx
+++ b/test_excel/函数公式.xlsx
@@ -319,7 +319,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="408">
   <si>
     <t>求平均值</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3213,6 +3213,106 @@
 然后CTRL+S</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>今</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单列文本合表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多列文本合并</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[new_test],[new_test],[new_test],[new_test]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从B41单元格中，将指定文本，变为指定文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>110107165401011234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>将B42格中的内容从</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>右</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>侧第4个字符起替换为“*”</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>将B43格中的内容从</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>左</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>侧第4个字符起替换为“*”</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将B44格中的内容从第7个字符起的4个字符替换为“*”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -3222,7 +3322,7 @@
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="\x\=#"/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="33">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3461,6 +3561,14 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -3746,7 +3854,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3939,13 +4047,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3958,6 +4069,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3975,8 +4089,8 @@
     <xf numFmtId="0" fontId="28" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="20">
@@ -4445,16 +4559,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="10.875" style="1"/>
-    <col min="2" max="2" width="34.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="53.875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.625" style="1" customWidth="1"/>
     <col min="6" max="16384" width="10.875" style="1"/>
   </cols>
@@ -4466,11 +4580,11 @@
       </c>
       <c r="B1" s="1">
         <f ca="1">MONTH(NOW())</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1">
         <f ca="1">DAY((NOW()))</f>
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -4532,16 +4646,16 @@
       <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="65"/>
-      <c r="J6" s="65"/>
-      <c r="K6" s="65"/>
-      <c r="L6" s="65"/>
-      <c r="M6" s="65"/>
-      <c r="N6" s="65"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="67"/>
+      <c r="M6" s="67"/>
+      <c r="N6" s="67"/>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
@@ -4589,7 +4703,7 @@
       </c>
       <c r="B11" s="1">
         <f ca="1">INT(1+RAND()*38)</f>
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>10</v>
@@ -4601,7 +4715,7 @@
       </c>
       <c r="B12" s="1">
         <f ca="1">RAND()*(38-1)+1</f>
-        <v>14.903309814999925</v>
+        <v>5.7619262668107192</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>9</v>
@@ -4613,7 +4727,7 @@
       </c>
       <c r="B13" s="1">
         <f ca="1">ROUND(1+RAND()*38,3)</f>
-        <v>25.262</v>
+        <v>3.5539999999999998</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>11</v>
@@ -4713,7 +4827,7 @@
       </c>
       <c r="B21" s="5" t="str">
         <f ca="1">INDEX(C2:C17,RANDBETWEEN(1,16))</f>
-        <v>取整并在1-38之间做随机</v>
+        <v>指定小数位四舍五入</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>25</v>
@@ -4884,42 +4998,100 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
+      <c r="B36" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="C36" s="67" t="str">
+        <f>PHONETIC(B36:B39)</f>
+        <v>今天天气</v>
+      </c>
+      <c r="D36" s="67" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="B37" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="C37" s="67"/>
+      <c r="D37" s="67"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="B38" s="64"/>
-      <c r="C38" s="64"/>
-      <c r="D38" s="64"/>
+      <c r="B38" s="64" t="s">
+        <v>396</v>
+      </c>
+      <c r="C38" s="67"/>
+      <c r="D38" s="67"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="B39" s="64"/>
-      <c r="C39" s="64"/>
-      <c r="D39" s="64"/>
+      <c r="B39" s="64" t="s">
+        <v>397</v>
+      </c>
+      <c r="C39" s="67"/>
+      <c r="D39" s="67"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="B40" s="64"/>
-      <c r="C40" s="64"/>
-      <c r="D40" s="64"/>
+      <c r="A40" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B40" s="64" t="s">
+        <v>400</v>
+      </c>
+      <c r="C40" s="64" t="str">
+        <f>CONCATENATE(A40,"~",B40)</f>
+        <v>今天~天气</v>
+      </c>
+      <c r="D40" s="64" t="s">
+        <v>401</v>
+      </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="B41" s="64"/>
-      <c r="C41" s="64"/>
-      <c r="D41" s="64"/>
+      <c r="B41" s="64" t="s">
+        <v>402</v>
+      </c>
+      <c r="C41" s="64" t="str">
+        <f>SUBSTITUTE(B41,"new_test","new1_test",2)</f>
+        <v>[[new_test],[new1_test],[new_test],[new_test]]</v>
+      </c>
+      <c r="D41" s="64" t="s">
+        <v>403</v>
+      </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="B42" s="64"/>
-      <c r="C42" s="64"/>
-      <c r="D42" s="64"/>
+      <c r="B42" s="80" t="s">
+        <v>404</v>
+      </c>
+      <c r="C42" s="64" t="str">
+        <f>SUBSTITUTE(B42,RIGHT(B42,4),"****")</f>
+        <v>11010716540101****</v>
+      </c>
+      <c r="D42" s="64" t="s">
+        <v>405</v>
+      </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="B43" s="64"/>
-      <c r="C43" s="64"/>
-      <c r="D43" s="64"/>
+      <c r="B43" s="80" t="s">
+        <v>404</v>
+      </c>
+      <c r="C43" s="65" t="str">
+        <f>SUBSTITUTE(B43,LEFT(B43,4),"****")</f>
+        <v>****07165401011234</v>
+      </c>
+      <c r="D43" s="65" t="s">
+        <v>406</v>
+      </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="B44" s="64"/>
-      <c r="C44" s="64"/>
-      <c r="D44" s="64"/>
+      <c r="B44" s="80" t="s">
+        <v>404</v>
+      </c>
+      <c r="C44" s="65" t="str">
+        <f>SUBSTITUTE(B44,MID(B44,7,4),"****")</f>
+        <v>110107****01011234</v>
+      </c>
+      <c r="D44" s="64" t="s">
+        <v>407</v>
+      </c>
     </row>
     <row r="45" spans="1:4">
       <c r="B45" s="64"/>
@@ -4942,8 +5114,10 @@
       <c r="D48" s="64"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="E6:N6"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="D36:D39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -4954,6 +5128,7 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
     <ignoredError sqref="B2" emptyCellReference="1"/>
+    <ignoredError sqref="B42" numberStoredAsText="1"/>
   </ignoredErrors>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
@@ -5058,11 +5233,11 @@
       </c>
     </row>
     <row r="13" spans="8:12">
-      <c r="K13" s="66">
+      <c r="K13" s="68">
         <f>L12+K12</f>
         <v>2580</v>
       </c>
-      <c r="L13" s="66"/>
+      <c r="L13" s="68"/>
     </row>
     <row r="17" spans="4:12">
       <c r="K17" s="8">
@@ -5148,7 +5323,7 @@
       <c r="D27" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="E27" s="78" t="s">
+      <c r="E27" s="66" t="s">
         <v>201</v>
       </c>
     </row>
@@ -6041,14 +6216,14 @@
     </row>
     <row r="3" spans="2:9">
       <c r="B3" s="43"/>
-      <c r="C3" s="67" t="s">
+      <c r="C3" s="69" t="s">
         <v>271</v>
       </c>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
       <c r="I3" s="44"/>
     </row>
     <row r="4" spans="2:9" ht="17.100000000000001" customHeight="1">
@@ -6325,35 +6500,35 @@
       <c r="A1" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="69" t="s">
         <v>212</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67" t="s">
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69" t="s">
         <v>213</v>
       </c>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
       <c r="N1" s="14" t="s">
         <v>214</v>
       </c>
       <c r="P1" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="R1" s="67" t="s">
+      <c r="R1" s="69" t="s">
         <v>216</v>
       </c>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="69">
+      <c r="A2" s="70">
         <f>ABS(C3-C5)</f>
         <v>200</v>
       </c>
@@ -6408,7 +6583,7 @@
       </c>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="69"/>
+      <c r="A3" s="70"/>
       <c r="B3" s="21" t="s">
         <v>232</v>
       </c>
@@ -6470,7 +6645,7 @@
       </c>
     </row>
     <row r="4" spans="1:20">
-      <c r="A4" s="69"/>
+      <c r="A4" s="70"/>
       <c r="B4" s="17" t="s">
         <v>217</v>
       </c>
@@ -6522,7 +6697,7 @@
       </c>
     </row>
     <row r="5" spans="1:20">
-      <c r="A5" s="69"/>
+      <c r="A5" s="70"/>
       <c r="B5" s="21" t="s">
         <v>241</v>
       </c>
@@ -6614,16 +6789,16 @@
       </c>
     </row>
     <row r="8" spans="1:20">
-      <c r="A8" s="70" t="s">
+      <c r="A8" s="71" t="s">
         <v>285</v>
       </c>
-      <c r="B8" s="71"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="72"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="73"/>
       <c r="N8" s="24" t="s">
         <v>250</v>
       </c>
@@ -6633,18 +6808,18 @@
       </c>
     </row>
     <row r="9" spans="1:20">
-      <c r="A9" s="67" t="s">
+      <c r="A9" s="69" t="s">
         <v>252</v>
       </c>
-      <c r="B9" s="67"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67" t="s">
+      <c r="B9" s="69"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69" t="s">
         <v>253</v>
       </c>
-      <c r="F9" s="67"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="67"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
       <c r="N9" s="24" t="s">
         <v>254</v>
       </c>
@@ -6655,22 +6830,22 @@
       <c r="T9" s="29"/>
     </row>
     <row r="10" spans="1:20">
-      <c r="A10" s="67" t="s">
+      <c r="A10" s="69" t="s">
         <v>256</v>
       </c>
-      <c r="B10" s="67"/>
-      <c r="C10" s="67" t="s">
+      <c r="B10" s="69"/>
+      <c r="C10" s="69" t="s">
         <v>257</v>
       </c>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67" t="s">
+      <c r="D10" s="69"/>
+      <c r="E10" s="69" t="s">
         <v>256</v>
       </c>
-      <c r="F10" s="67"/>
-      <c r="G10" s="67" t="s">
+      <c r="F10" s="69"/>
+      <c r="G10" s="69" t="s">
         <v>257</v>
       </c>
-      <c r="H10" s="67"/>
+      <c r="H10" s="69"/>
       <c r="N10" s="30"/>
       <c r="O10" s="19"/>
       <c r="P10" s="31"/>
@@ -6783,66 +6958,66 @@
       <c r="T13" s="29"/>
     </row>
     <row r="14" spans="1:20">
-      <c r="A14" s="68" t="str">
+      <c r="A14" s="74" t="str">
         <f>IF(AND($A$13="通过",$B$13="通过"),"通过","不通过")</f>
         <v>通过</v>
       </c>
-      <c r="B14" s="68"/>
-      <c r="C14" s="68" t="str">
+      <c r="B14" s="74"/>
+      <c r="C14" s="74" t="str">
         <f>IF(AND($C$13="通过",$D$13="通过"),"通过","不通过")</f>
         <v>通过</v>
       </c>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68" t="str">
+      <c r="D14" s="74"/>
+      <c r="E14" s="74" t="str">
         <f>IF(AND($A$13="通过",$B$13="通过"),"通过","不通过")</f>
         <v>通过</v>
       </c>
-      <c r="F14" s="68"/>
-      <c r="G14" s="68" t="str">
+      <c r="F14" s="74"/>
+      <c r="G14" s="74" t="str">
         <f>IF(AND($C$13="通过",$D$13="通过"),"通过","不通过")</f>
         <v>通过</v>
       </c>
-      <c r="H14" s="68"/>
+      <c r="H14" s="74"/>
       <c r="N14" s="30"/>
       <c r="O14" s="19"/>
       <c r="P14" s="31"/>
       <c r="T14" s="29"/>
     </row>
     <row r="15" spans="1:20">
-      <c r="A15" s="67" t="s">
+      <c r="A15" s="69" t="s">
         <v>286</v>
       </c>
-      <c r="B15" s="67"/>
-      <c r="C15" s="67"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67" t="s">
+      <c r="B15" s="69"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69" t="s">
         <v>287</v>
       </c>
-      <c r="F15" s="67"/>
-      <c r="G15" s="67"/>
-      <c r="H15" s="67"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="69"/>
       <c r="N15" s="30"/>
       <c r="O15" s="19"/>
       <c r="P15" s="31"/>
       <c r="T15" s="29"/>
     </row>
     <row r="16" spans="1:20">
-      <c r="A16" s="67" t="s">
+      <c r="A16" s="69" t="s">
         <v>262</v>
       </c>
-      <c r="B16" s="67"/>
-      <c r="C16" s="67" t="s">
+      <c r="B16" s="69"/>
+      <c r="C16" s="69" t="s">
         <v>263</v>
       </c>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67" t="s">
+      <c r="D16" s="69"/>
+      <c r="E16" s="69" t="s">
         <v>262</v>
       </c>
-      <c r="F16" s="67"/>
-      <c r="G16" s="67" t="s">
+      <c r="F16" s="69"/>
+      <c r="G16" s="69" t="s">
         <v>263</v>
       </c>
-      <c r="H16" s="67"/>
+      <c r="H16" s="69"/>
       <c r="N16" s="30"/>
       <c r="O16" s="19"/>
       <c r="P16" s="31"/>
@@ -6950,44 +7125,44 @@
       </c>
     </row>
     <row r="20" spans="1:20">
-      <c r="A20" s="68" t="str">
+      <c r="A20" s="74" t="str">
         <f>IF(AND($A$19="通过",$B$19="通过"),"通过","不通过")</f>
         <v>不通过</v>
       </c>
-      <c r="B20" s="68"/>
-      <c r="C20" s="68" t="str">
+      <c r="B20" s="74"/>
+      <c r="C20" s="74" t="str">
         <f>IF(AND($C$19="通过",$D$19="通过"),"通过","不通过")</f>
         <v>不通过</v>
       </c>
-      <c r="D20" s="68"/>
-      <c r="E20" s="68" t="str">
+      <c r="D20" s="74"/>
+      <c r="E20" s="74" t="str">
         <f>IF(AND($E$19="通过",$F$19="通过"),"通过","不通过")</f>
         <v>通过</v>
       </c>
-      <c r="F20" s="68"/>
-      <c r="G20" s="68" t="str">
+      <c r="F20" s="74"/>
+      <c r="G20" s="74" t="str">
         <f>IF(AND($G$19="通过",$H$19="通过"),"通过","不通过")</f>
         <v>通过</v>
       </c>
-      <c r="H20" s="68"/>
+      <c r="H20" s="74"/>
     </row>
     <row r="22" spans="1:20">
-      <c r="A22" s="67" t="s">
+      <c r="A22" s="69" t="s">
         <v>289</v>
       </c>
-      <c r="B22" s="67"/>
-      <c r="C22" s="67"/>
-      <c r="D22" s="67" t="s">
+      <c r="B22" s="69"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="69" t="s">
         <v>264</v>
       </c>
-      <c r="E22" s="67"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="67"/>
-      <c r="H22" s="67" t="s">
+      <c r="E22" s="69"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="69"/>
+      <c r="H22" s="69" t="s">
         <v>290</v>
       </c>
-      <c r="I22" s="67"/>
-      <c r="J22" s="67"/>
+      <c r="I22" s="69"/>
+      <c r="J22" s="69"/>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" s="14" t="s">
@@ -6999,14 +7174,14 @@
       <c r="C23" s="14" t="s">
         <v>292</v>
       </c>
-      <c r="D23" s="67" t="s">
+      <c r="D23" s="69" t="s">
         <v>266</v>
       </c>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67" t="s">
+      <c r="E23" s="69"/>
+      <c r="F23" s="69" t="s">
         <v>267</v>
       </c>
-      <c r="G23" s="67"/>
+      <c r="G23" s="69"/>
       <c r="H23" s="14" t="s">
         <v>268</v>
       </c>
@@ -50422,27 +50597,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="F23:G23"/>
     <mergeCell ref="A20:B20"/>
@@ -50452,6 +50606,27 @@
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="D22:G22"/>
     <mergeCell ref="H22:J22"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A8:H8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -50888,10 +51063,10 @@
       <c r="D18" s="56"/>
       <c r="E18" s="56"/>
       <c r="F18" s="56"/>
-      <c r="G18" s="73" t="s">
+      <c r="G18" s="75" t="s">
         <v>338</v>
       </c>
-      <c r="H18" s="74"/>
+      <c r="H18" s="76"/>
       <c r="I18" s="58" t="s">
         <v>339</v>
       </c>
@@ -50942,13 +51117,13 @@
       <c r="D20" s="56"/>
       <c r="E20" s="56"/>
       <c r="F20" s="56"/>
-      <c r="G20" s="75" t="s">
+      <c r="G20" s="77" t="s">
         <v>343</v>
       </c>
-      <c r="H20" s="76"/>
-      <c r="I20" s="76"/>
-      <c r="J20" s="76"/>
-      <c r="K20" s="77"/>
+      <c r="H20" s="78"/>
+      <c r="I20" s="78"/>
+      <c r="J20" s="78"/>
+      <c r="K20" s="79"/>
       <c r="L20" s="56"/>
       <c r="M20" s="56"/>
       <c r="N20" s="56"/>
@@ -50966,16 +51141,16 @@
       <c r="D21" s="56"/>
       <c r="E21" s="56"/>
       <c r="F21" s="56"/>
-      <c r="G21" s="75" t="s">
+      <c r="G21" s="77" t="s">
         <v>346</v>
       </c>
-      <c r="H21" s="76"/>
-      <c r="I21" s="76"/>
-      <c r="J21" s="76"/>
-      <c r="K21" s="76"/>
-      <c r="L21" s="76"/>
-      <c r="M21" s="76"/>
-      <c r="N21" s="77"/>
+      <c r="H21" s="78"/>
+      <c r="I21" s="78"/>
+      <c r="J21" s="78"/>
+      <c r="K21" s="78"/>
+      <c r="L21" s="78"/>
+      <c r="M21" s="78"/>
+      <c r="N21" s="79"/>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="56" t="s">
@@ -51064,11 +51239,11 @@
       <c r="D25" s="56"/>
       <c r="E25" s="56"/>
       <c r="F25" s="56"/>
-      <c r="G25" s="75" t="s">
+      <c r="G25" s="77" t="s">
         <v>357</v>
       </c>
-      <c r="H25" s="76"/>
-      <c r="I25" s="77"/>
+      <c r="H25" s="78"/>
+      <c r="I25" s="79"/>
       <c r="J25" s="56"/>
       <c r="K25" s="56"/>
       <c r="L25" s="56"/>
@@ -51088,14 +51263,14 @@
       <c r="D26" s="56"/>
       <c r="E26" s="56"/>
       <c r="F26" s="56"/>
-      <c r="G26" s="75" t="s">
+      <c r="G26" s="77" t="s">
         <v>360</v>
       </c>
-      <c r="H26" s="76"/>
-      <c r="I26" s="76"/>
-      <c r="J26" s="76"/>
-      <c r="K26" s="76"/>
-      <c r="L26" s="77"/>
+      <c r="H26" s="78"/>
+      <c r="I26" s="78"/>
+      <c r="J26" s="78"/>
+      <c r="K26" s="78"/>
+      <c r="L26" s="79"/>
       <c r="M26" s="56"/>
       <c r="N26" s="56"/>
     </row>
